--- a/Phomopsis Trials/Concord Trial/ConcordR.xlsx
+++ b/Phomopsis Trials/Concord Trial/ConcordR.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/jib5787_psu_edu/Documents/Documents/2025 Trials/Phomopsis/Concord/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{DFB04449-597D-4894-A610-D0F7D010F6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C200050E-7EF8-43F6-B62A-36BB9908817C}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{DFB04449-597D-4894-A610-D0F7D010F6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A29EF51-B328-43FB-A002-F5B462E943A4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4C3D928E-2DE5-46F3-B1DB-1403AE9A9648}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{4C3D928E-2DE5-46F3-B1DB-1403AE9A9648}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Block</t>
   </si>
@@ -60,14 +61,49 @@
   </si>
   <si>
     <t>ClusterSev</t>
+  </si>
+  <si>
+    <t>5 blocks in the Randomized Complete Block design to capture field variablity</t>
+  </si>
+  <si>
+    <t>Treatments: 1 - Abound low rate, 2 - Abound high rate, 3 - Sovran low rate, 4- Sovran high rate, 5 standard fungicide(pos. control), 6 - Water check (neg. control)</t>
+  </si>
+  <si>
+    <t>Percent of leaves with phomopsis infection</t>
+  </si>
+  <si>
+    <t>Percent of nodes with phomopsis infection</t>
+  </si>
+  <si>
+    <t>Percent of clusters with phomopsis infection</t>
+  </si>
+  <si>
+    <t>Percent of area of leaves with phomopsis infection determined from Barratt Horsfall Scale</t>
+  </si>
+  <si>
+    <t>Percent of area of nodes  with phomopsis infection  determined from Barratt Horsfall Scale</t>
+  </si>
+  <si>
+    <t>Percent of area of clusters with phomopsis infection  determined from Barratt Horsfall Scale</t>
+  </si>
+  <si>
+    <t>Metadata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -95,8 +131,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B28BB80-6C5B-4315-84DD-9F44FEB7E18D}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1251,4 +1291,92 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6639255F-D506-4873-B8D3-EBD6963EFD34}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" customWidth="1"/>
+    <col min="2" max="2" width="78.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>